--- a/biology/Botanique/Abel_Le_Creps/Abel_Le_Creps.xlsx
+++ b/biology/Botanique/Abel_Le_Creps/Abel_Le_Creps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abel-Frédéric-Léopold Le Creps (11 avril 1787, Caen - 10 avril 1850, Caen) est un homme politique français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abel Le Creps est le fils de François Bernard Abel Le Creps, propriétaire du château du Mesnil (Mathieu), et de Madeleine Victoire Denis.
 Il fit ses études à l'École centrale du Calvados, puis devint l'élève et le commensal du chimiste Louis-Nicolas Vauquelin. Après avoir étudié avec lui les sciences physiques, il se rendit auprès du baron Lair, inspecteur-général du génie maritime, nommé, par Napoléon, directeur des constructions navales à l'arsenal d'Anvers, et dont il épousa la fille peu de temps après. Revenu à Caen en 1809, il s'y occupa d'agronomie et d'horticulture et fut l'un des fondateurs de la Société d'horticulture de cette ville. 
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Abel Le Creps », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]
 Théodore-Eloi Lebreton, Biographie normande: recueil de notices biographiques et bibliographiques sur les personnages célèbres nés en Normandie et sur ceux qui se sont seulement distingués par leurs actions ou par leurs écrits, 1858</t>
